--- a/results/case1/data_case1_apos_recipe.xlsx
+++ b/results/case1/data_case1_apos_recipe.xlsx
@@ -124,7 +124,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.000333575506576532], ["'mechanical disinfection' (unit, DK, None)", 0.00037520880566993], ["'autoclave' (unit, DK, None)", 0.0010272137434543757], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.8790835562578482e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012246824689661785], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.584287138622502e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4601414681146322e-05], ["'steel recycling' (kilogram, RER, None)", 1.1882360801443078e-07], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.5564794263563196e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.384925794814227e-08], ["'mixed heating grid' (megajoule, DK, None)", -2.3459297431585448e-07]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.000333575506576532], ["'wet wipe' (unit, GLO, None)", 0.00017295420345245097], ["'autoclave' (unit, DK, None)", 0.0010272137434543757], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.8790835562578482e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012246824689661785], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.584287138622502e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4601414681146322e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.796795224622662e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.282527937202675e-07], ["'steel recycling' (kilogram, RER, None)", 1.1882360801443078e-07], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.5564794263563196e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 2.025711506392785e-05], ["'mixed heating grid' (megajoule, DK, None)", -5.06362754251207e-05]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.000333575506576532], ["'wet wipe' (unit, GLO, None)", 0.00017295420345245097], ["'autoclave' (unit, DK, None)", 0.0010272137434543757], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.8790835562578482e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012246824689661785], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.584287138622502e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4601414681146322e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.796795224622662e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.282527937202675e-07], ["'steel recycling' (kilogram, RER, None)", 1.1882360801443078e-07], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.5564794263563196e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.025711506392784e-05], ["'mixed heating grid' (megajoule, DK, None)", -5.06362754251207e-05]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.247667951250791], ["'autoclave' (unit, DK, None)", 0.19079215856727294], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.027296290441540628], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.032922653644280986], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004612916212960943], ["'mixed heating grid' (megajoule, DK, None)", -0.005142349987006164], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.143761563027494], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0027600303373126987], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0026147110047636804], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.04945452741811267], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.01549412370455884]]</t>
@@ -148,7 +148,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.077597665593612], ["'mechanical disinfection' (unit, DK, None)", 0.11211004610921144], ["'autoclave' (unit, DK, None)", 0.2967878022157579], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0022817982413058796], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.026281368926481946], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007498631825419665], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.004849268463230599], ["'steel recycling' (kilogram, RER, None)", 4.605984393612389e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0004181000755484739], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.871967487544037e-05], ["'mixed heating grid' (megajoule, DK, None)", -4.31636106966701e-05]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.077597665593612], ["'wet wipe' (unit, GLO, None)", 0.0290692276323418], ["'autoclave' (unit, DK, None)", 0.2967878022157579], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0022817982413058796], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.026281368926481946], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007498631825419665], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.004849268463230599], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0015135277595486774], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.014498049311243], ["'steel recycling' (kilogram, RER, None)", 4.605984393612389e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0004181000755484739], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.008357539807326713], ["'mixed heating grid' (megajoule, DK, None)", -0.009316751645923271]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.077597665593612], ["'wet wipe' (unit, GLO, None)", 0.0290692276323418], ["'autoclave' (unit, DK, None)", 0.2967878022157579], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0022817982413058796], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.026281368926481946], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007498631825419665], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.004849268463230599], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0015135277595486774], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.014498049311243], ["'steel recycling' (kilogram, RER, None)", 4.605984393612389e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0004181000755484739], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.008357539807326708], ["'mixed heating grid' (megajoule, DK, None)", -0.009316751645923271]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.007819009969358246], ["'autoclave' (unit, DK, None)", 0.0394902322676484], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.001433129336139609], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017285907686796533], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002860267172324207], ["'mixed heating grid' (megajoule, DK, None)", -0.00029870051097987587], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0033086618537634892], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0003804253294898089], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00043126317621353924], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.012188485200438814], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005004700503736301]]</t>
@@ -172,7 +172,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.0038141919528169492], ["'mechanical disinfection' (unit, DK, None)", 0.023493120499279926], ["'autoclave' (unit, DK, None)", 0.06142925019411973], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0022738453706192953], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.002802284464905544], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.795790080526512e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00015663445563908867], ["'steel recycling' (kilogram, RER, None)", 1.1324305152059807e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.70038675356902e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.400837341422272e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.507218023551523e-06]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0038141919528169492], ["'wet wipe' (unit, GLO, None)", 0.0014690581750302874], ["'autoclave' (unit, DK, None)", 0.06142925019411973], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0022738453706192953], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.002802284464905544], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.795790080526512e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00015663445563908867], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.667831184106222e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007612142834552601], ["'steel recycling' (kilogram, RER, None)", 1.1324305152059807e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.70038675356902e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0005182144146716538], ["'mixed heating grid' (megajoule, DK, None)", -0.0005411764046285917]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0038141919528169492], ["'wet wipe' (unit, GLO, None)", 0.0014690581750302874], ["'autoclave' (unit, DK, None)", 0.06142925019411973], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0022738453706192953], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.002802284464905544], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.795790080526512e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00015663445563908867], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.667831184106222e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007612142834552601], ["'steel recycling' (kilogram, RER, None)", 1.1324305152059807e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.70038675356902e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0005182144146716536], ["'mixed heating grid' (megajoule, DK, None)", -0.0005411764046285917]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.01032083284262005], ["'autoclave' (unit, DK, None)", 0.04984927276489968], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0020751526283454705], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0025030016005193685], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00037297277691233287], ["'mixed heating grid' (megajoule, DK, None)", -0.00040211042768747757], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.004412686759534555], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0004987330116264511], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005588596854070015], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.01585384014256768], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0006586955621650691]]</t>
@@ -196,7 +196,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.005019055441793588], ["'mechanical disinfection' (unit, DK, None)", 0.029630367944303786], ["'autoclave' (unit, DK, None)", 0.07754331318984395], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0029075387160600193], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0035148612102002385], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.0547700192602984e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0002061550351206498], ["'steel recycling' (kilogram, RER, None)", 1.6549289713575745e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -5.359499394148117e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.130641007278567e-06], ["'mixed heating grid' (megajoule, DK, None)", -3.375215222929359e-06]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.005019055441793588], ["'wet wipe' (unit, GLO, None)", 0.0014651003243823064], ["'autoclave' (unit, DK, None)", 0.07754331318984395], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0029075387160600193], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0035148612102002385], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.0547700192602984e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0002061550351206498], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.869017561690434e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0011022392369259603], ["'steel recycling' (kilogram, RER, None)", 1.6549289713575745e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -5.359499394148117e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0006757406131366035], ["'mixed heating grid' (megajoule, DK, None)", -0.0007285313132063422]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.005019055441793588], ["'wet wipe' (unit, GLO, None)", 0.0014651003243823064], ["'autoclave' (unit, DK, None)", 0.07754331318984395], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0029075387160600193], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0035148612102002385], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.0547700192602984e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0002061550351206498], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.869017561690434e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0011022392369259603], ["'steel recycling' (kilogram, RER, None)", 1.6549289713575745e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -5.359499394148117e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0006757406131366032], ["'mixed heating grid' (megajoule, DK, None)", -0.0007285313132063422]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.6751940820519753], ["'autoclave' (unit, DK, None)", 2.0275042921699793], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.07983234415047831], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09628292042004298], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01285706292387203], ["'mixed heating grid' (megajoule, DK, None)", -0.04010672820971574], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.3044165475104463], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.025535825354160786], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.019192898850390078], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.22262312833483783], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0366053801485432]]</t>
@@ -220,7 +220,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.15187467601788318], ["'mechanical disinfection' (unit, DK, None)", 1.195628516598107], ["'autoclave' (unit, DK, None)", 3.1538955655977454], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.199418469859495], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.05403646512128873], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.000399986867495291], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.01145655726800925], ["'steel recycling' (kilogram, RER, None)", 0.00010660684474090631], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.012551117790270077], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00010791899815276759], ["'mixed heating grid' (megajoule, DK, None)", -0.00033664593175020146]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.15187467601788318], ["'wet wipe' (unit, GLO, None)", 0.07577565125216155], ["'autoclave' (unit, DK, None)", 3.1538955655977454], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.199418469859495], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.05403646512128873], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.000399986867495291], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.01145655726800925], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0002950257241000964], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.04239981816662443], ["'steel recycling' (kilogram, RER, None)", 0.00010660684474090631], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.012551117790270077], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.02329403141762086], ["'mixed heating grid' (megajoule, DK, None)", -0.0726641374088991]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.15187467601788318], ["'wet wipe' (unit, GLO, None)", 0.07577565125216155], ["'autoclave' (unit, DK, None)", 3.1538955655977454], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.199418469859495], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.05403646512128873], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.000399986867495291], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.01145655726800925], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0002950257241000964], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.04239981816662443], ["'steel recycling' (kilogram, RER, None)", 0.00010660684474090631], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.012551117790270077], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.023294031417620847], ["'mixed heating grid' (megajoule, DK, None)", -0.0726641374088991]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.1497598036002232], ["'autoclave' (unit, DK, None)", 0.04885414291498727], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.66292268082937e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.453555609342956e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012145637700042517], ["'mixed heating grid' (megajoule, DK, None)", -0.0015023561372778911], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.10345247820654492], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007776605657444995], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0007179651177834863], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.012748314945520046], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0042087327948805275]]</t>
@@ -244,7 +244,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.017547401046256256], ["'mechanical disinfection' (unit, DK, None)", 0.02887655800382988], ["'autoclave' (unit, DK, None)", 0.07599533342331354], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0006349672848969509], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0056889779872860815], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4974951651438007e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0013172268146002663], ["'steel recycling' (kilogram, RER, None)", 1.0489364307381456e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -9.76345909423501e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0194747122854783e-05], ["'mixed heating grid' (megajoule, DK, None)", -1.2610404892913452e-05]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.017547401046256256], ["'wet wipe' (unit, GLO, None)", 0.014141492512151903], ["'autoclave' (unit, DK, None)", 0.07599533342331354], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0006349672848969509], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0056889779872860815], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4974951651438007e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0013172268146002663], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.38345643006432e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4015657729216685e-05], ["'steel recycling' (kilogram, RER, None)", 1.0489364307381456e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -9.76345909423501e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0022005093064180665], ["'mixed heating grid' (megajoule, DK, None)", -0.002721922671563573]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.017547401046256256], ["'wet wipe' (unit, GLO, None)", 0.014141492512151903], ["'autoclave' (unit, DK, None)", 0.07599533342331354], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0006349672848969509], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0056889779872860815], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4974951651438007e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0013172268146002663], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.38345643006432e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4015657729216685e-05], ["'steel recycling' (kilogram, RER, None)", 1.0489364307381456e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -9.76345909423501e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.002200509306418065], ["'mixed heating grid' (megajoule, DK, None)", -0.002721922671563573]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 5.541604347231344e-05], ["'autoclave' (unit, DK, None)", 0.00019296316941059578], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.58319546204808e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.894629089232106e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.833580643750577e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.1062043591843606e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.3667282683307842e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -6.041961199144594e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 7.03264775332982e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.76901396182111e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.944429461216856e-06]]</t>
@@ -268,7 +268,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 2.824695635594571e-05], ["'mechanical disinfection' (unit, DK, None)", 0.00010690827935729232], ["'autoclave' (unit, DK, None)", 0.0003001649301942601], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.203635492985631e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.612229468158318e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6546792680235377e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.8604559294757817e-06], ["'steel recycling' (kilogram, RER, None)", 2.8629768764108866e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.4367628197984365e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.2178125351105416e-08], ["'mixed heating grid' (megajoule, DK, None)", -1.767895713772511e-08]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.824695635594571e-05], ["'wet wipe' (unit, GLO, None)", 1.4419012025268638e-05], ["'autoclave' (unit, DK, None)", 0.0003001649301942601], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.203635492985631e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.612229468158318e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6546792680235377e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.8604559294757817e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9523620599476214e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2746990484691842e-08], ["'steel recycling' (kilogram, RER, None)", 2.8629768764108866e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.4367628197984365e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 6.945563577487394e-06], ["'mixed heating grid' (megajoule, DK, None)", -3.81595631951648e-06]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.824695635594571e-05], ["'wet wipe' (unit, GLO, None)", 1.4419012025268638e-05], ["'autoclave' (unit, DK, None)", 0.0003001649301942601], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.203635492985631e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.612229468158318e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6546792680235377e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.8604559294757817e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9523620599476214e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2746990484691842e-08], ["'steel recycling' (kilogram, RER, None)", 2.8629768764108866e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.4367628197984365e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.945563577487391e-06], ["'mixed heating grid' (megajoule, DK, None)", -3.81595631951648e-06]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 7.917952151314314e-06], ["'autoclave' (unit, DK, None)", 0.00013211238653669172], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.2966130333026505e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.157880257398221e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.3200074131873167e-07], ["'mixed heating grid' (megajoule, DK, None)", -2.8258527396808664e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.396019172976341e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.513983095780588e-07], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 6.293322804812483e-07], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.2111142705739061e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.030985176402412e-06]]</t>
@@ -292,7 +292,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 3.3049438043648323e-06], ["'mechanical disinfection' (unit, DK, None)", 4.770289115245131e-05], ["'autoclave' (unit, DK, None)", 0.00020550815683485378], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 9.87936933653862e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.051695259657262e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.780361276332338e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.356469428677169e-07], ["'steel recycling' (kilogram, RER, None)", 2.4792529284227813e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.564747598141276e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7867318999091716e-09], ["'mixed heating grid' (megajoule, DK, None)", -2.3719507199998238e-08]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.3049438043648323e-06], ["'wet wipe' (unit, GLO, None)", 8.73837482992531e-05], ["'autoclave' (unit, DK, None)", 0.00020550815683485378], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 9.87936933653862e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.051695259657262e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.780361276332338e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.356469428677169e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.666060304142186e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.2713601133496753e-08], ["'steel recycling' (kilogram, RER, None)", 2.4792529284227813e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.564747598141276e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 6.015087384065546e-07], ["'mixed heating grid' (megajoule, DK, None)", -5.119793135450573e-06]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.3049438043648323e-06], ["'wet wipe' (unit, GLO, None)", 8.73837482992531e-05], ["'autoclave' (unit, DK, None)", 0.00020550815683485378], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 9.87936933653862e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.051695259657262e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.780361276332338e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.356469428677169e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.666060304142186e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.2713601133496753e-08], ["'steel recycling' (kilogram, RER, None)", 2.4792529284227813e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.564747598141276e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.015087384065542e-07], ["'mixed heating grid' (megajoule, DK, None)", -5.119793135450573e-06]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.009957987439300807], ["'autoclave' (unit, DK, None)", 0.01840120380456154], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.203053902275194e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0001071620116176537], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003821638432019743], ["'mixed heating grid' (megajoule, DK, None)", -0.00028804421607543515], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.005243101887115092], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0004849986643017058], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005255137527841917], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.005454001890489938], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0007170797091930671]]</t>
@@ -316,7 +316,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.014570441738662997], ["'mechanical disinfection' (unit, DK, None)", 0.010598409550412715], ["'autoclave' (unit, DK, None)", 0.02862409480709573], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00032508793608916885], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005372940469562379], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.581217180417996e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0002244277950607416], ["'steel recycling' (kilogram, RER, None)", 0.0006601801346299269], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0006726682386916728], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.2077885387021015e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.4177717264526405e-06]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.014570441738662997], ["'wet wipe' (unit, GLO, None)", 0.0012216925657296158], ["'autoclave' (unit, DK, None)", 0.02862409480709573], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00032508793608916885], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005372940469562379], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.581217180417996e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0002244277950607416], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2977050606313539e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.7190610620618136e-05], ["'steel recycling' (kilogram, RER, None)", 0.0006601801346299269], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0006726682386916728], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0006923927045341516], ["'mixed heating grid' (megajoule, DK, None)", -0.0005218696570635172]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.014570441738662997], ["'wet wipe' (unit, GLO, None)", 0.0012216925657296158], ["'autoclave' (unit, DK, None)", 0.02862409480709573], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00032508793608916885], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005372940469562379], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.581217180417996e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0002244277950607416], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2977050606313539e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.7190610620618136e-05], ["'steel recycling' (kilogram, RER, None)", 0.0006601801346299269], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0006726682386916728], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0006923927045341513], ["'mixed heating grid' (megajoule, DK, None)", -0.0005218696570635172]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.1553442365091092], ["'autoclave' (unit, DK, None)", 0.5754938194132772], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.01732974244329736], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02090231078600482], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00682055007363103], ["'mixed heating grid' (megajoule, DK, None)", -0.011235313045071065], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.06998903308820356], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00716991355322872], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00794538484105166], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.2284311819455623], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.016618078095279636]]</t>
@@ -340,7 +340,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.07913174580427854], ["'mechanical disinfection' (unit, DK, None)", 0.3265408137656994], ["'autoclave' (unit, DK, None)", 0.8952126079762089], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.03323246620974781], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.03004448558910152], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007425832506749352], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.005201037732984671], ["'steel recycling' (kilogram, RER, None)", 7.886695871524437e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0005657915153904158], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.7250006098233534e-05], ["'mixed heating grid' (megajoule, DK, None)", -9.430643179831572e-05]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.07913174580427854], ["'wet wipe' (unit, GLO, None)", 0.02865400522656048], ["'autoclave' (unit, DK, None)", 0.8952126079762089], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.03323246620974781], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.03004448558910152], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007425832506749352], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.005201037732984671], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008694939337112057], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.009204687318607626], ["'steel recycling' (kilogram, RER, None)", 7.886695871524437e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0005657915153904158], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.012357262979994019], ["'mixed heating grid' (megajoule, DK, None)", -0.020355794834974072]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.07913174580427854], ["'wet wipe' (unit, GLO, None)", 0.02865400522656048], ["'autoclave' (unit, DK, None)", 0.8952126079762089], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.03323246620974781], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.03004448558910152], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007425832506749352], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.005201037732984671], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008694939337112057], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.009204687318607626], ["'steel recycling' (kilogram, RER, None)", 7.886695871524437e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0005657915153904158], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.012357262979994014], ["'mixed heating grid' (megajoule, DK, None)", -0.020355794834974072]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.01109665390564502], ["'autoclave' (unit, DK, None)", 0.05158945732667454], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.037877141439473e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.668978686452692e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013972236809335103], ["'mixed heating grid' (megajoule, DK, None)", -0.00021063405707091927], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.002851404372087534], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007152358259093865], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0008165585202543739], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.014724712549065282], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0010032864326678702]]</t>
@@ -364,7 +364,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.005239455311531156], ["'mechanical disinfection' (unit, DK, None)", 0.031154346425294594], ["'autoclave' (unit, DK, None)", 0.08025026695260484], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00022647189792651698], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.000532488049147138], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.301244291939136e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0003140032537685202], ["'steel recycling' (kilogram, RER, None)", 1.487855932783306e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.3374701991196008e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1727949122944455e-05], ["'mixed heating grid' (megajoule, DK, None)", -1.7680100463489618e-06]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.005239455311531156], ["'wet wipe' (unit, GLO, None)", 0.0014095075711435905], ["'autoclave' (unit, DK, None)", 0.08025026695260484], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00022647189792651698], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.000532488049147138], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.301244291939136e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0003140032537685202], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.654307231768458e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.056064008713112e-06], ["'steel recycling' (kilogram, RER, None)", 1.487855932783306e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.3374701991196008e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.002531446918617648], ["'mixed heating grid' (megajoule, DK, None)", -0.00038162031033704344]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.005239455311531156], ["'wet wipe' (unit, GLO, None)", 0.0014095075711435905], ["'autoclave' (unit, DK, None)", 0.08025026695260484], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00022647189792651698], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.000532488049147138], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.301244291939136e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0003140032537685202], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.654307231768458e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.056064008713112e-06], ["'steel recycling' (kilogram, RER, None)", 1.487855932783306e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.3374701991196008e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0025314469186176465], ["'mixed heating grid' (megajoule, DK, None)", -0.00038162031033704344]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.0042025856310032], ["'autoclave' (unit, DK, None)", 0.03688837287674391], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.9666321769191717e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.4069808609535297e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010170018625369828], ["'mixed heating grid' (megajoule, DK, None)", -0.005648933218947218], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0011236078307300743], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00019319989274728204], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0001964611829629429], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.001652248894311579], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.003883240255678425]]</t>
@@ -388,7 +388,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.001581432577866277], ["'mechanical disinfection' (unit, DK, None)", 0.022147093438174528], ["'autoclave' (unit, DK, None)", 0.05738191336382386], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00015513580612411954], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005188382356055664], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7590344730727993e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0012153558901474566], ["'steel recycling' (kilogram, RER, None)", 1.2977416013502298e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.4138381941208613e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.536461458915875e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.7415744733485193e-05]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001581432577866277], ["'wet wipe' (unit, GLO, None)", 0.01239056921269081], ["'autoclave' (unit, DK, None)", 0.05738191336382386], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00015513580612411954], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005188382356055664], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7590344730727993e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0012153558901474566], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5968343991675038e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5003218470254074e-06], ["'steel recycling' (kilogram, RER, None)", 1.2977416013502298e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.4138381941208613e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0018425727149339417], ["'mixed heating grid' (megajoule, DK, None)", -0.010234563574693161]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.001581432577866277], ["'wet wipe' (unit, GLO, None)", 0.01239056921269081], ["'autoclave' (unit, DK, None)", 0.05738191336382386], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00015513580612411954], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005188382356055664], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7590344730727993e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0012153558901474566], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5968343991675038e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5003218470254074e-06], ["'steel recycling' (kilogram, RER, None)", 1.2977416013502298e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.4138381941208613e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0018425727149339408], ["'mixed heating grid' (megajoule, DK, None)", -0.010234563574693161]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.002064265956882368], ["'autoclave' (unit, DK, None)", 0.0030270295696814484], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.2432449824794254e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.813958490263666e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.129776345151156e-05], ["'mixed heating grid' (megajoule, DK, None)", -4.046674214738679e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0011050259740129542], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.447245141989417e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00010296501005082973], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0008132577639781012], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005023574760098959]]</t>
@@ -412,7 +412,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.0012112887567200796], ["'mechanical disinfection' (unit, DK, None)", 0.0014413901913540026], ["'autoclave' (unit, DK, None)", 0.00470871266394892], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0001168739501189395], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004913935982056908], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.9996863740997377e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00015722517208031236], ["'steel recycling' (kilogram, RER, None)", 2.5724706324560113e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.119193393480666e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.627056658358664e-07], ["'mixed heating grid' (megajoule, DK, None)", -3.3966779947415537e-07]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0012112887567200796], ["'wet wipe' (unit, GLO, None)", 0.00019106005691340647], ["'autoclave' (unit, DK, None)", 0.00470871266394892], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0001168739501189395], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004913935982056908], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.9996863740997377e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00015722517208031236], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.196313925880032e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.0006422709417977e-06], ["'steel recycling' (kilogram, RER, None)", 2.5724706324560113e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.119193393480666e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 5.6704325821345155e-05], ["'mixed heating grid' (megajoule, DK, None)", -7.331639959541451e-05]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0012112887567200796], ["'wet wipe' (unit, GLO, None)", 0.00019106005691340647], ["'autoclave' (unit, DK, None)", 0.00470871266394892], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0001168739501189395], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004913935982056908], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.9996863740997377e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00015722517208031236], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.196313925880032e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.0006422709417977e-06], ["'steel recycling' (kilogram, RER, None)", 2.5724706324560113e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.119193393480666e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.670432582134513e-05], ["'mixed heating grid' (megajoule, DK, None)", -7.331639959541451e-05]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 4.733842544265174e-08], ["'autoclave' (unit, DK, None)", 2.3092227802790922e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9931668403711556e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.403367009364216e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.263489988104882e-09], ["'mixed heating grid' (megajoule, DK, None)", -1.4024914924531339e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.6525691801685923e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.5101671789828276e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.6170093559289163e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.5079875308053e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.860604466009841e-09]]</t>
@@ -436,7 +436,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 1.951141917799411e-08], ["'mechanical disinfection' (unit, DK, None)", 1.2915690654761726e-07], ["'autoclave' (unit, DK, None)", 3.5921243248785877e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.1025301923261077e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.105104264494296e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2144914971293855e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.4601701952163714e-09], ["'steel recycling' (kilogram, RER, None)", 1.5152118789947587e-11], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.100497873451215e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.418042982808499e-11], ["'mixed heating grid' (megajoule, DK, None)", -1.1772165826636557e-10]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 1.951141917799411e-08], ["'wet wipe' (unit, GLO, None)", 1.0550627287310078e-07], ["'autoclave' (unit, DK, None)", 3.5921243248785877e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.1025301923261077e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.105104264494296e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2144914971293855e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.4601701952163714e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.3347517728385442e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0583634536649758e-09], ["'steel recycling' (kilogram, RER, None)", 1.5152118789947587e-11], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.100497873451215e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 9.536229376430819e-09], ["'mixed heating grid' (megajoule, DK, None)", -2.540990977612053e-08]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 1.951141917799411e-08], ["'wet wipe' (unit, GLO, None)", 1.0550627287310078e-07], ["'autoclave' (unit, DK, None)", 3.5921243248785877e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.1025301923261077e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.105104264494296e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2144914971293855e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.4601701952163714e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.3347517728385442e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0583634536649758e-09], ["'steel recycling' (kilogram, RER, None)", 1.5152118789947587e-11], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.100497873451215e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.536229376430814e-09], ["'mixed heating grid' (megajoule, DK, None)", -2.540990977612053e-08]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.0003099037900597585], ["'autoclave' (unit, DK, None)", 0.0002300187387244984], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.94312187815029e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.947604914671092e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8052196076550352e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.2153227550897369e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0001446096813199754], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.362615662934402e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 4.336731679813802e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 5.6414717764985725e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.552317655151577e-05]]</t>
@@ -460,7 +460,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.00014640185165482197], ["'mechanical disinfection' (unit, DK, None)", 0.00013032160343928436], ["'autoclave' (unit, DK, None)", 0.0003578069269047753], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0010261375623267e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -5.369213806448935e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.9003472041972904e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.988108104256043e-06], ["'steel recycling' (kilogram, RER, None)", 4.8941281339669676e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.4463278491463452e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.194006984650627e-08], ["'mixed heating grid' (megajoule, DK, None)", -1.0201117855464834e-07]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00014640185165482197], ["'wet wipe' (unit, GLO, None)", 4.610857655130492e-05], ["'autoclave' (unit, DK, None)", 0.0003578069269047753], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0010261375623267e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -5.369213806448935e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.9003472041972904e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.988108104256043e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.776608425199891e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.0594957422404805e-07], ["'steel recycling' (kilogram, RER, None)", 4.8941281339669676e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.4463278491463452e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 6.894179924023336e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.2018844122670056e-05]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00014640185165482197], ["'wet wipe' (unit, GLO, None)", 4.610857655130492e-05], ["'autoclave' (unit, DK, None)", 0.0003578069269047753], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0010261375623267e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -5.369213806448935e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.9003472041972904e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.988108104256043e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.776608425199891e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.0594957422404805e-07], ["'steel recycling' (kilogram, RER, None)", 4.8941281339669676e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.4463278491463452e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.894179924023333e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.2018844122670056e-05]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.0005818799883943075], ["'autoclave' (unit, DK, None)", 0.00040796565848969787], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.214431522385385e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.064839119907573e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.294577118901504e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.262159782997522e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00029814119935336913], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.27432214969988e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 5.221676366636165e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 8.667230872664111e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.478877099779217e-05]]</t>
@@ -484,7 +484,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.00019579190952673215], ["'mechanical disinfection' (unit, DK, None)", 0.00023787026149481189], ["'autoclave' (unit, DK, None)", 0.00063461324653953], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.324252108144017e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.107137026674246e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9045699082159415e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.0888004593929258e-05], ["'steel recycling' (kilogram, RER, None)", 8.351767528602225e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.0606357403071463e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.801637565785558e-08], ["'mixed heating grid' (megajoule, DK, None)", -1.8988008294592127e-07]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00019579190952673215], ["'wet wipe' (unit, GLO, None)", 0.0005225429928630545], ["'autoclave' (unit, DK, None)", 0.00063461324653953], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.324252108144017e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.107137026674246e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9045699082159415e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.0888004593929258e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.316669505718304e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.2303878693170963e-06], ["'steel recycling' (kilogram, RER, None)", 8.351767528602225e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.0606357403071463e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.6839629136386623e-05], ["'mixed heating grid' (megajoule, DK, None)", -4.098511562775576e-05]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00019579190952673215], ["'wet wipe' (unit, GLO, None)", 0.0005225429928630545], ["'autoclave' (unit, DK, None)", 0.00063461324653953], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.324252108144017e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.107137026674246e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9045699082159415e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.0888004593929258e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.316669505718304e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.2303878693170963e-06], ["'steel recycling' (kilogram, RER, None)", 8.351767528602225e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.0606357403071463e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6839629136386616e-05], ["'mixed heating grid' (megajoule, DK, None)", -4.098511562775576e-05]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.0006164944781865452], ["'autoclave' (unit, DK, None)", 0.0004183515429875163], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.238521153015121e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.0919189650878055e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.50436407365204e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.3314523808264315e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.000319256621892811], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.583327453246576e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 5.445704635382674e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 9.090548388705484e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.6069128150977314e-05]]</t>
@@ -508,7 +508,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.00020008080691643547], ["'mechanical disinfection' (unit, DK, None)", 0.00024386381285427614], ["'autoclave' (unit, DK, None)", 0.0006507690668694699], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.631967213655118e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.258217953068413e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9175692664524607e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1288723968771066e-05], ["'steel recycling' (kilogram, RER, None)", 8.737239171111666e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.107295975652211e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.977727533737427e-08], ["'mixed heating grid' (megajoule, DK, None)", -1.9569633179013747e-07]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00020008080691643547], ["'wet wipe' (unit, GLO, None)", 0.0008001720282189734], ["'autoclave' (unit, DK, None)", 0.0006507690668694699], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.631967213655118e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.258217953068413e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9175692664524607e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1288723968771066e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.3380247154186055e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.2423129387542628e-06], ["'steel recycling' (kilogram, RER, None)", 8.737239171111666e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.107295975652211e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.7219714692777004e-05], ["'mixed heating grid' (megajoule, DK, None)", -4.224053761673758e-05]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00020008080691643547], ["'wet wipe' (unit, GLO, None)", 0.0008001720282189734], ["'autoclave' (unit, DK, None)", 0.0006507690668694699], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.631967213655118e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.258217953068413e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9175692664524607e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1288723968771066e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.3380247154186055e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.2423129387542628e-06], ["'steel recycling' (kilogram, RER, None)", 8.737239171111666e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.107295975652211e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.7219714692776994e-05], ["'mixed heating grid' (megajoule, DK, None)", -4.224053761673758e-05]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.001999873955807658], ["'autoclave' (unit, DK, None)", 0.0035704101012985186], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.550784063035629e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.665084983579689e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.340299064380043e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00010370750489981037], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0010571503609166696], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.9896356331207494e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 3.3707300413101683e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0004621111050987131], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00016367070275871825]]</t>
@@ -532,7 +532,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.000711998323222504], ["'mechanical disinfection' (unit, DK, None)", 0.002000101066648804], ["'autoclave' (unit, DK, None)", 0.005553971268686585], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.057779642104819e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00017550559432749792], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.17659768650924e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.122478640138366e-05], ["'steel recycling' (kilogram, RER, None)", 8.310900600343729e-07], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.1137271064895954e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.000640229046124e-07], ["'mixed heating grid' (megajoule, DK, None)", -8.704950808734317e-07]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.000711998323222504], ["'wet wipe' (unit, GLO, None)", 0.009213847217300588], ["'autoclave' (unit, DK, None)", 0.005553971268686585], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.057779642104819e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00017550559432749792], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.17659768650924e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.122478640138366e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.243960257998032e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.332484331360097e-06], ["'steel recycling' (kilogram, RER, None)", 8.310900600343729e-07], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.1137271064895954e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.00015110697488872018], ["'mixed heating grid' (megajoule, DK, None)", -0.00018789406971741882]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.000711998323222504], ["'wet wipe' (unit, GLO, None)", 0.009213847217300588], ["'autoclave' (unit, DK, None)", 0.005553971268686585], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.057779642104819e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00017550559432749792], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.17659768650924e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.122478640138366e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.243960257998032e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.332484331360097e-06], ["'steel recycling' (kilogram, RER, None)", 8.310900600343729e-07], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.1137271064895954e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001511069748887201], ["'mixed heating grid' (megajoule, DK, None)", -0.00018789406971741882]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 1.014262406637426e-09], ["'autoclave' (unit, DK, None)", 1.2405706503545627e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.951965859811035e-11], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.590128886520645e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.848522061800545e-11], ["'mixed heating grid' (megajoule, DK, None)", -7.55676667683974e-11], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -5.566936795074646e-10], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.7011350403823654e-11], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.6950031409292895e-11], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.242275650271699e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.719566561665077e-11]]</t>
@@ -556,7 +556,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 3.5171944117918617e-10], ["'mechanical disinfection' (unit, DK, None)", 7.260635278057382e-10], ["'autoclave' (unit, DK, None)", 1.9297765672182087e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.1157244323605612e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.2223301751925733e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1814368174463844e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.0419782688249244e-11], ["'steel recycling' (kilogram, RER, None)", 2.0696745775438342e-13], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.039966838582129e-12], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.3909787868798213e-13], ["'mixed heating grid' (megajoule, DK, None)", -6.342962571370562e-13]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.5171944117918617e-10], ["'wet wipe' (unit, GLO, None)", 3.42975185463537e-10], ["'autoclave' (unit, DK, None)", 1.9297765672182087e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.1157244323605612e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.2223301751925733e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1814368174463844e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.0419782688249244e-11], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.7095921030922185e-12], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.223176023421935e-11], ["'steel recycling' (kilogram, RER, None)", 2.0696745775438342e-13], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.039966838582129e-12], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 5.160864716479511e-11], ["'mixed heating grid' (megajoule, DK, None)", -1.3691117592580224e-10]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.5171944117918617e-10], ["'wet wipe' (unit, GLO, None)", 3.42975185463537e-10], ["'autoclave' (unit, DK, None)", 1.9297765672182087e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.1157244323605612e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.2223301751925733e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1814368174463844e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.0419782688249244e-11], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.7095921030922185e-12], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.223176023421935e-11], ["'steel recycling' (kilogram, RER, None)", 2.0696745775438342e-13], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.039966838582129e-12], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.160864716479508e-11], ["'mixed heating grid' (megajoule, DK, None)", -1.3691117592580224e-10]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 4.981149945737093e-07], ["'autoclave' (unit, DK, None)", 5.227321280548722e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.000248255070389e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.615558616229207e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.7040499949604e-09], ["'mixed heating grid' (megajoule, DK, None)", -1.61916326831531e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.6026581628352935e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.628134106121746e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 8.795697683867168e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.5279353842318616e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.6997740649461144e-08]]</t>
@@ -580,7 +580,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 2.3221135852866277e-07], ["'mechanical disinfection' (unit, DK, None)", 3.005422429275165e-07], ["'autoclave' (unit, DK, None)", 8.131388658631346e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.711456141911214e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.326857099966325e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.11646227266515e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1579356171619326e-08], ["'steel recycling' (kilogram, RER, None)", 2.2852554344253866e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.667734880599835e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.1453389446826e-11], ["'mixed heating grid' (megajoule, DK, None)", -1.3590854987409913e-10]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.3221135852866277e-07], ["'wet wipe' (unit, GLO, None)", 8.755033037148208e-08], ["'autoclave' (unit, DK, None)", 8.131388658631346e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.711456141911214e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.326857099966325e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.11646227266515e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1579356171619326e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.22646202215864e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5921726016422196e-08], ["'steel recycling' (kilogram, RER, None)", 2.2852554344253866e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.667734880599835e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.758149950725255e-08], ["'mixed heating grid' (megajoule, DK, None)", -2.9335502412735887e-08]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.3221135852866277e-07], ["'wet wipe' (unit, GLO, None)", 8.755033037148208e-08], ["'autoclave' (unit, DK, None)", 8.131388658631346e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.711456141911214e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.326857099966325e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.11646227266515e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1579356171619326e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.22646202215864e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5921726016422196e-08], ["'steel recycling' (kilogram, RER, None)", 2.2852554344253866e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.667734880599835e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.7581499507252543e-08], ["'mixed heating grid' (megajoule, DK, None)", -2.9335502412735887e-08]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.05704845898333706], ["'autoclave' (unit, DK, None)", 0.01012733407959707], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7124195598508325e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0018874170736002e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022677312311635784], ["'mixed heating grid' (megajoule, DK, None)", -0.00047887678891225365], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.040950014820912255], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0002466567963996367], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00020767510406093464], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0035793653916921225], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0012363072838937551]]</t>
@@ -604,7 +604,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.003828155955333485], ["'mechanical disinfection' (unit, DK, None)", 0.005860578483809266], ["'autoclave' (unit, DK, None)", 0.015753630790484332], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00020808513797305607], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0011932304422336841], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.428571479246415e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00038693288094016575], ["'steel recycling' (kilogram, RER, None)", 3.184863645097894e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.067649706116663e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9034773649004775e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.019573024105643e-06]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.003828155955333485], ["'wet wipe' (unit, GLO, None)", 0.005318127502245624], ["'autoclave' (unit, DK, None)", 0.015753630790484332], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00020808513797305607], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0011932304422336841], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.428571479246415e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00038693288094016575], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9393289519882056e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.815651010966312e-06], ["'steel recycling' (kilogram, RER, None)", 3.184863645097894e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.067649706116663e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.00041086057413131013], ["'mixed heating grid' (megajoule, DK, None)", -0.0008676142469039112]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.003828155955333485], ["'wet wipe' (unit, GLO, None)", 0.005318127502245624], ["'autoclave' (unit, DK, None)", 0.015753630790484332], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00020808513797305607], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0011932304422336841], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.428571479246415e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00038693288094016575], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9393289519882056e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.815651010966312e-06], ["'steel recycling' (kilogram, RER, None)", 3.184863645097894e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.067649706116663e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00041086057413130996], ["'mixed heating grid' (megajoule, DK, None)", -0.0008676142469039112]]</t>
   </si>
 </sst>
 </file>
